--- a/Dictionary_methods/DoD_results.xlsx
+++ b/Dictionary_methods/DoD_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="26">
   <si>
     <t>Group</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Audubon Society</t>
+  </si>
+  <si>
+    <t>Earthjustice</t>
+  </si>
+  <si>
+    <t>Greenpeace</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N411"/>
+  <dimension ref="A1:N493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,40 +988,40 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.007265469061876247</v>
+        <v>0.007266629401900503</v>
       </c>
       <c r="C13">
-        <v>0.0004790419161676647</v>
+        <v>0.0004791184221033299</v>
       </c>
       <c r="D13">
-        <v>7.984031936127745E-05</v>
+        <v>7.985307035055498E-05</v>
       </c>
       <c r="E13">
-        <v>0.0003992015968063872</v>
+        <v>0.0003992653517527749</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.001117764471057884</v>
+        <v>0.00111794298490777</v>
       </c>
       <c r="H13">
-        <v>7.984031936127745E-05</v>
+        <v>7.985307035055498E-05</v>
       </c>
       <c r="I13">
-        <v>0.0008782435129740519</v>
+        <v>0.0008783837738561048</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7.984031936127745E-05</v>
+        <v>7.985307035055498E-05</v>
       </c>
       <c r="L13">
-        <v>7.984031936127745E-05</v>
+        <v>7.985307035055498E-05</v>
       </c>
       <c r="M13">
-        <v>7.984031936127745E-05</v>
+        <v>7.985307035055498E-05</v>
       </c>
       <c r="N13">
         <v>1991</v>
@@ -1158,40 +1164,40 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>0.01266726137377342</v>
+        <v>0.006235385814497272</v>
       </c>
       <c r="C17">
-        <v>0.0001784121320249777</v>
+        <v>8.660258075690655E-05</v>
       </c>
       <c r="D17">
-        <v>0.0003568242640499554</v>
+        <v>0.0001732051615138131</v>
       </c>
       <c r="E17">
-        <v>0.00392506690454951</v>
+        <v>0.00251147484195029</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.0001732051615138131</v>
       </c>
       <c r="G17">
-        <v>0.001248884924174844</v>
+        <v>0.001558846453624318</v>
       </c>
       <c r="H17">
-        <v>0.0007136485280999108</v>
+        <v>0.0003464103230276262</v>
       </c>
       <c r="I17">
-        <v>0.0005352363960749331</v>
+        <v>0.0002598077422707197</v>
       </c>
       <c r="J17">
-        <v>0.0003568242640499554</v>
+        <v>0.0001732051615138131</v>
       </c>
       <c r="K17">
-        <v>0.0001784121320249777</v>
+        <v>8.660258075690655E-05</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0003568242640499554</v>
+        <v>0.0002598077422707197</v>
       </c>
       <c r="N17">
         <v>1995</v>
@@ -6350,7 +6356,7 @@
         <v>17</v>
       </c>
       <c r="B135">
-        <v>0.03752181500872601</v>
+        <v>0.03752590814879459</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -6359,31 +6365,31 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0.0002181500872600349</v>
+        <v>0.0002181738845860151</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135">
-        <v>0.0005453752181500873</v>
+        <v>0.0005454347114650376</v>
       </c>
       <c r="H135">
-        <v>0.0003272251308900524</v>
+        <v>0.0003272608268790226</v>
       </c>
       <c r="I135">
-        <v>0.00130890052356021</v>
+        <v>0.00130904330751609</v>
       </c>
       <c r="J135">
-        <v>0.0001090750436300175</v>
+        <v>0.0001090869422930075</v>
       </c>
       <c r="K135">
-        <v>0.0002181500872600349</v>
+        <v>0.0002181738845860151</v>
       </c>
       <c r="L135">
-        <v>0.0002181500872600349</v>
+        <v>0.0002181738845860151</v>
       </c>
       <c r="M135">
-        <v>0.0004363001745200698</v>
+        <v>0.0004363477691720301</v>
       </c>
       <c r="N135">
         <v>1990</v>
@@ -6394,40 +6400,40 @@
         <v>17</v>
       </c>
       <c r="B136">
-        <v>999</v>
+        <v>0.05043050430504305</v>
       </c>
       <c r="C136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>999</v>
+        <v>0.002460024600246003</v>
       </c>
       <c r="F136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K136">
-        <v>999</v>
+        <v>0.001230012300123001</v>
       </c>
       <c r="L136">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="M136">
-        <v>999</v>
+        <v>0.001230012300123001</v>
       </c>
       <c r="N136">
         <v>1991</v>
@@ -6570,37 +6576,37 @@
         <v>17</v>
       </c>
       <c r="B140">
-        <v>0.0541871921182266</v>
+        <v>0.03588105185549275</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>0.0007372818874416319</v>
       </c>
       <c r="E140">
-        <v>0.004926108374384237</v>
+        <v>0.001966085033177685</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>0.0002457606291472106</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>0.0007372818874416319</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>0.0009830425165888424</v>
       </c>
       <c r="J140">
-        <v>0.002463054187192118</v>
+        <v>0.0007372818874416319</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>0.001228803145736053</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>0.0002457606291472106</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -6746,40 +6752,40 @@
         <v>17</v>
       </c>
       <c r="B144">
-        <v>999</v>
+        <v>0.03152022315202232</v>
       </c>
       <c r="C144">
-        <v>999</v>
+        <v>0.0002789400278940028</v>
       </c>
       <c r="D144">
-        <v>999</v>
+        <v>0.0002789400278940028</v>
       </c>
       <c r="E144">
-        <v>999</v>
+        <v>0.002510460251046025</v>
       </c>
       <c r="F144">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>999</v>
+        <v>0.0002789400278940028</v>
       </c>
       <c r="H144">
-        <v>999</v>
+        <v>0.0008368200836820083</v>
       </c>
       <c r="I144">
-        <v>999</v>
+        <v>0.0002789400278940028</v>
       </c>
       <c r="J144">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K144">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="L144">
-        <v>999</v>
+        <v>0.0002789400278940028</v>
       </c>
       <c r="M144">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="N144">
         <v>1999</v>
@@ -12554,40 +12560,40 @@
         <v>20</v>
       </c>
       <c r="B276">
-        <v>0.02868701728576683</v>
+        <v>0.02869757174392936</v>
       </c>
       <c r="C276">
-        <v>0.0003677822728944465</v>
+        <v>0.0003679175864606328</v>
       </c>
       <c r="D276">
-        <v>0.0003677822728944465</v>
+        <v>0.0003679175864606328</v>
       </c>
       <c r="E276">
-        <v>0.000735564545788893</v>
+        <v>0.0007358351729212656</v>
       </c>
       <c r="F276">
-        <v>0.0003677822728944465</v>
+        <v>0.0003679175864606328</v>
       </c>
       <c r="G276">
-        <v>0.0003677822728944465</v>
+        <v>0.0003679175864606328</v>
       </c>
       <c r="H276">
-        <v>0.001838911364472232</v>
+        <v>0.001839587932303164</v>
       </c>
       <c r="I276">
-        <v>0.001838911364472232</v>
+        <v>0.001839587932303164</v>
       </c>
       <c r="J276">
         <v>0</v>
       </c>
       <c r="K276">
-        <v>0.000735564545788893</v>
+        <v>0.0007358351729212656</v>
       </c>
       <c r="L276">
-        <v>0.0003677822728944465</v>
+        <v>0.0003679175864606328</v>
       </c>
       <c r="M276">
-        <v>0.0003677822728944465</v>
+        <v>0.0003679175864606328</v>
       </c>
       <c r="N276">
         <v>2008</v>
@@ -16954,28 +16960,28 @@
         <v>23</v>
       </c>
       <c r="B376">
-        <v>0.007646559048428207</v>
+        <v>0.00764872521246459</v>
       </c>
       <c r="C376">
-        <v>0.0002832058906825262</v>
+        <v>0.00028328611898017</v>
       </c>
       <c r="D376">
         <v>0</v>
       </c>
       <c r="E376">
-        <v>0.0008496176720475786</v>
+        <v>0.0008498583569405099</v>
       </c>
       <c r="F376">
         <v>0</v>
       </c>
       <c r="G376">
-        <v>0.0005664117813650524</v>
+        <v>0.0005665722379603399</v>
       </c>
       <c r="H376">
         <v>0</v>
       </c>
       <c r="I376">
-        <v>0.0002832058906825262</v>
+        <v>0.00028328611898017</v>
       </c>
       <c r="J376">
         <v>0</v>
@@ -18530,6 +18536,3614 @@
         <v>999</v>
       </c>
       <c r="N411">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14">
+      <c r="A412" t="s">
+        <v>24</v>
+      </c>
+      <c r="B412">
+        <v>999</v>
+      </c>
+      <c r="C412">
+        <v>999</v>
+      </c>
+      <c r="D412">
+        <v>999</v>
+      </c>
+      <c r="E412">
+        <v>999</v>
+      </c>
+      <c r="F412">
+        <v>999</v>
+      </c>
+      <c r="G412">
+        <v>999</v>
+      </c>
+      <c r="H412">
+        <v>999</v>
+      </c>
+      <c r="I412">
+        <v>999</v>
+      </c>
+      <c r="J412">
+        <v>999</v>
+      </c>
+      <c r="K412">
+        <v>999</v>
+      </c>
+      <c r="L412">
+        <v>999</v>
+      </c>
+      <c r="M412">
+        <v>999</v>
+      </c>
+      <c r="N412">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14">
+      <c r="A413" t="s">
+        <v>24</v>
+      </c>
+      <c r="B413">
+        <v>999</v>
+      </c>
+      <c r="C413">
+        <v>999</v>
+      </c>
+      <c r="D413">
+        <v>999</v>
+      </c>
+      <c r="E413">
+        <v>999</v>
+      </c>
+      <c r="F413">
+        <v>999</v>
+      </c>
+      <c r="G413">
+        <v>999</v>
+      </c>
+      <c r="H413">
+        <v>999</v>
+      </c>
+      <c r="I413">
+        <v>999</v>
+      </c>
+      <c r="J413">
+        <v>999</v>
+      </c>
+      <c r="K413">
+        <v>999</v>
+      </c>
+      <c r="L413">
+        <v>999</v>
+      </c>
+      <c r="M413">
+        <v>999</v>
+      </c>
+      <c r="N413">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14">
+      <c r="A414" t="s">
+        <v>24</v>
+      </c>
+      <c r="B414">
+        <v>999</v>
+      </c>
+      <c r="C414">
+        <v>999</v>
+      </c>
+      <c r="D414">
+        <v>999</v>
+      </c>
+      <c r="E414">
+        <v>999</v>
+      </c>
+      <c r="F414">
+        <v>999</v>
+      </c>
+      <c r="G414">
+        <v>999</v>
+      </c>
+      <c r="H414">
+        <v>999</v>
+      </c>
+      <c r="I414">
+        <v>999</v>
+      </c>
+      <c r="J414">
+        <v>999</v>
+      </c>
+      <c r="K414">
+        <v>999</v>
+      </c>
+      <c r="L414">
+        <v>999</v>
+      </c>
+      <c r="M414">
+        <v>999</v>
+      </c>
+      <c r="N414">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14">
+      <c r="A415" t="s">
+        <v>24</v>
+      </c>
+      <c r="B415">
+        <v>999</v>
+      </c>
+      <c r="C415">
+        <v>999</v>
+      </c>
+      <c r="D415">
+        <v>999</v>
+      </c>
+      <c r="E415">
+        <v>999</v>
+      </c>
+      <c r="F415">
+        <v>999</v>
+      </c>
+      <c r="G415">
+        <v>999</v>
+      </c>
+      <c r="H415">
+        <v>999</v>
+      </c>
+      <c r="I415">
+        <v>999</v>
+      </c>
+      <c r="J415">
+        <v>999</v>
+      </c>
+      <c r="K415">
+        <v>999</v>
+      </c>
+      <c r="L415">
+        <v>999</v>
+      </c>
+      <c r="M415">
+        <v>999</v>
+      </c>
+      <c r="N415">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14">
+      <c r="A416" t="s">
+        <v>24</v>
+      </c>
+      <c r="B416">
+        <v>999</v>
+      </c>
+      <c r="C416">
+        <v>999</v>
+      </c>
+      <c r="D416">
+        <v>999</v>
+      </c>
+      <c r="E416">
+        <v>999</v>
+      </c>
+      <c r="F416">
+        <v>999</v>
+      </c>
+      <c r="G416">
+        <v>999</v>
+      </c>
+      <c r="H416">
+        <v>999</v>
+      </c>
+      <c r="I416">
+        <v>999</v>
+      </c>
+      <c r="J416">
+        <v>999</v>
+      </c>
+      <c r="K416">
+        <v>999</v>
+      </c>
+      <c r="L416">
+        <v>999</v>
+      </c>
+      <c r="M416">
+        <v>999</v>
+      </c>
+      <c r="N416">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14">
+      <c r="A417" t="s">
+        <v>24</v>
+      </c>
+      <c r="B417">
+        <v>999</v>
+      </c>
+      <c r="C417">
+        <v>999</v>
+      </c>
+      <c r="D417">
+        <v>999</v>
+      </c>
+      <c r="E417">
+        <v>999</v>
+      </c>
+      <c r="F417">
+        <v>999</v>
+      </c>
+      <c r="G417">
+        <v>999</v>
+      </c>
+      <c r="H417">
+        <v>999</v>
+      </c>
+      <c r="I417">
+        <v>999</v>
+      </c>
+      <c r="J417">
+        <v>999</v>
+      </c>
+      <c r="K417">
+        <v>999</v>
+      </c>
+      <c r="L417">
+        <v>999</v>
+      </c>
+      <c r="M417">
+        <v>999</v>
+      </c>
+      <c r="N417">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14">
+      <c r="A418" t="s">
+        <v>24</v>
+      </c>
+      <c r="B418">
+        <v>999</v>
+      </c>
+      <c r="C418">
+        <v>999</v>
+      </c>
+      <c r="D418">
+        <v>999</v>
+      </c>
+      <c r="E418">
+        <v>999</v>
+      </c>
+      <c r="F418">
+        <v>999</v>
+      </c>
+      <c r="G418">
+        <v>999</v>
+      </c>
+      <c r="H418">
+        <v>999</v>
+      </c>
+      <c r="I418">
+        <v>999</v>
+      </c>
+      <c r="J418">
+        <v>999</v>
+      </c>
+      <c r="K418">
+        <v>999</v>
+      </c>
+      <c r="L418">
+        <v>999</v>
+      </c>
+      <c r="M418">
+        <v>999</v>
+      </c>
+      <c r="N418">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14">
+      <c r="A419" t="s">
+        <v>24</v>
+      </c>
+      <c r="B419">
+        <v>999</v>
+      </c>
+      <c r="C419">
+        <v>999</v>
+      </c>
+      <c r="D419">
+        <v>999</v>
+      </c>
+      <c r="E419">
+        <v>999</v>
+      </c>
+      <c r="F419">
+        <v>999</v>
+      </c>
+      <c r="G419">
+        <v>999</v>
+      </c>
+      <c r="H419">
+        <v>999</v>
+      </c>
+      <c r="I419">
+        <v>999</v>
+      </c>
+      <c r="J419">
+        <v>999</v>
+      </c>
+      <c r="K419">
+        <v>999</v>
+      </c>
+      <c r="L419">
+        <v>999</v>
+      </c>
+      <c r="M419">
+        <v>999</v>
+      </c>
+      <c r="N419">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14">
+      <c r="A420" t="s">
+        <v>24</v>
+      </c>
+      <c r="B420">
+        <v>999</v>
+      </c>
+      <c r="C420">
+        <v>999</v>
+      </c>
+      <c r="D420">
+        <v>999</v>
+      </c>
+      <c r="E420">
+        <v>999</v>
+      </c>
+      <c r="F420">
+        <v>999</v>
+      </c>
+      <c r="G420">
+        <v>999</v>
+      </c>
+      <c r="H420">
+        <v>999</v>
+      </c>
+      <c r="I420">
+        <v>999</v>
+      </c>
+      <c r="J420">
+        <v>999</v>
+      </c>
+      <c r="K420">
+        <v>999</v>
+      </c>
+      <c r="L420">
+        <v>999</v>
+      </c>
+      <c r="M420">
+        <v>999</v>
+      </c>
+      <c r="N420">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14">
+      <c r="A421" t="s">
+        <v>24</v>
+      </c>
+      <c r="B421">
+        <v>999</v>
+      </c>
+      <c r="C421">
+        <v>999</v>
+      </c>
+      <c r="D421">
+        <v>999</v>
+      </c>
+      <c r="E421">
+        <v>999</v>
+      </c>
+      <c r="F421">
+        <v>999</v>
+      </c>
+      <c r="G421">
+        <v>999</v>
+      </c>
+      <c r="H421">
+        <v>999</v>
+      </c>
+      <c r="I421">
+        <v>999</v>
+      </c>
+      <c r="J421">
+        <v>999</v>
+      </c>
+      <c r="K421">
+        <v>999</v>
+      </c>
+      <c r="L421">
+        <v>999</v>
+      </c>
+      <c r="M421">
+        <v>999</v>
+      </c>
+      <c r="N421">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14">
+      <c r="A422" t="s">
+        <v>24</v>
+      </c>
+      <c r="B422">
+        <v>999</v>
+      </c>
+      <c r="C422">
+        <v>999</v>
+      </c>
+      <c r="D422">
+        <v>999</v>
+      </c>
+      <c r="E422">
+        <v>999</v>
+      </c>
+      <c r="F422">
+        <v>999</v>
+      </c>
+      <c r="G422">
+        <v>999</v>
+      </c>
+      <c r="H422">
+        <v>999</v>
+      </c>
+      <c r="I422">
+        <v>999</v>
+      </c>
+      <c r="J422">
+        <v>999</v>
+      </c>
+      <c r="K422">
+        <v>999</v>
+      </c>
+      <c r="L422">
+        <v>999</v>
+      </c>
+      <c r="M422">
+        <v>999</v>
+      </c>
+      <c r="N422">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14">
+      <c r="A423" t="s">
+        <v>24</v>
+      </c>
+      <c r="B423">
+        <v>999</v>
+      </c>
+      <c r="C423">
+        <v>999</v>
+      </c>
+      <c r="D423">
+        <v>999</v>
+      </c>
+      <c r="E423">
+        <v>999</v>
+      </c>
+      <c r="F423">
+        <v>999</v>
+      </c>
+      <c r="G423">
+        <v>999</v>
+      </c>
+      <c r="H423">
+        <v>999</v>
+      </c>
+      <c r="I423">
+        <v>999</v>
+      </c>
+      <c r="J423">
+        <v>999</v>
+      </c>
+      <c r="K423">
+        <v>999</v>
+      </c>
+      <c r="L423">
+        <v>999</v>
+      </c>
+      <c r="M423">
+        <v>999</v>
+      </c>
+      <c r="N423">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14">
+      <c r="A424" t="s">
+        <v>24</v>
+      </c>
+      <c r="B424">
+        <v>999</v>
+      </c>
+      <c r="C424">
+        <v>999</v>
+      </c>
+      <c r="D424">
+        <v>999</v>
+      </c>
+      <c r="E424">
+        <v>999</v>
+      </c>
+      <c r="F424">
+        <v>999</v>
+      </c>
+      <c r="G424">
+        <v>999</v>
+      </c>
+      <c r="H424">
+        <v>999</v>
+      </c>
+      <c r="I424">
+        <v>999</v>
+      </c>
+      <c r="J424">
+        <v>999</v>
+      </c>
+      <c r="K424">
+        <v>999</v>
+      </c>
+      <c r="L424">
+        <v>999</v>
+      </c>
+      <c r="M424">
+        <v>999</v>
+      </c>
+      <c r="N424">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14">
+      <c r="A425" t="s">
+        <v>24</v>
+      </c>
+      <c r="B425">
+        <v>999</v>
+      </c>
+      <c r="C425">
+        <v>999</v>
+      </c>
+      <c r="D425">
+        <v>999</v>
+      </c>
+      <c r="E425">
+        <v>999</v>
+      </c>
+      <c r="F425">
+        <v>999</v>
+      </c>
+      <c r="G425">
+        <v>999</v>
+      </c>
+      <c r="H425">
+        <v>999</v>
+      </c>
+      <c r="I425">
+        <v>999</v>
+      </c>
+      <c r="J425">
+        <v>999</v>
+      </c>
+      <c r="K425">
+        <v>999</v>
+      </c>
+      <c r="L425">
+        <v>999</v>
+      </c>
+      <c r="M425">
+        <v>999</v>
+      </c>
+      <c r="N425">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14">
+      <c r="A426" t="s">
+        <v>24</v>
+      </c>
+      <c r="B426">
+        <v>999</v>
+      </c>
+      <c r="C426">
+        <v>999</v>
+      </c>
+      <c r="D426">
+        <v>999</v>
+      </c>
+      <c r="E426">
+        <v>999</v>
+      </c>
+      <c r="F426">
+        <v>999</v>
+      </c>
+      <c r="G426">
+        <v>999</v>
+      </c>
+      <c r="H426">
+        <v>999</v>
+      </c>
+      <c r="I426">
+        <v>999</v>
+      </c>
+      <c r="J426">
+        <v>999</v>
+      </c>
+      <c r="K426">
+        <v>999</v>
+      </c>
+      <c r="L426">
+        <v>999</v>
+      </c>
+      <c r="M426">
+        <v>999</v>
+      </c>
+      <c r="N426">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14">
+      <c r="A427" t="s">
+        <v>24</v>
+      </c>
+      <c r="B427">
+        <v>999</v>
+      </c>
+      <c r="C427">
+        <v>999</v>
+      </c>
+      <c r="D427">
+        <v>999</v>
+      </c>
+      <c r="E427">
+        <v>999</v>
+      </c>
+      <c r="F427">
+        <v>999</v>
+      </c>
+      <c r="G427">
+        <v>999</v>
+      </c>
+      <c r="H427">
+        <v>999</v>
+      </c>
+      <c r="I427">
+        <v>999</v>
+      </c>
+      <c r="J427">
+        <v>999</v>
+      </c>
+      <c r="K427">
+        <v>999</v>
+      </c>
+      <c r="L427">
+        <v>999</v>
+      </c>
+      <c r="M427">
+        <v>999</v>
+      </c>
+      <c r="N427">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14">
+      <c r="A428" t="s">
+        <v>24</v>
+      </c>
+      <c r="B428">
+        <v>999</v>
+      </c>
+      <c r="C428">
+        <v>999</v>
+      </c>
+      <c r="D428">
+        <v>999</v>
+      </c>
+      <c r="E428">
+        <v>999</v>
+      </c>
+      <c r="F428">
+        <v>999</v>
+      </c>
+      <c r="G428">
+        <v>999</v>
+      </c>
+      <c r="H428">
+        <v>999</v>
+      </c>
+      <c r="I428">
+        <v>999</v>
+      </c>
+      <c r="J428">
+        <v>999</v>
+      </c>
+      <c r="K428">
+        <v>999</v>
+      </c>
+      <c r="L428">
+        <v>999</v>
+      </c>
+      <c r="M428">
+        <v>999</v>
+      </c>
+      <c r="N428">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14">
+      <c r="A429" t="s">
+        <v>24</v>
+      </c>
+      <c r="B429">
+        <v>999</v>
+      </c>
+      <c r="C429">
+        <v>999</v>
+      </c>
+      <c r="D429">
+        <v>999</v>
+      </c>
+      <c r="E429">
+        <v>999</v>
+      </c>
+      <c r="F429">
+        <v>999</v>
+      </c>
+      <c r="G429">
+        <v>999</v>
+      </c>
+      <c r="H429">
+        <v>999</v>
+      </c>
+      <c r="I429">
+        <v>999</v>
+      </c>
+      <c r="J429">
+        <v>999</v>
+      </c>
+      <c r="K429">
+        <v>999</v>
+      </c>
+      <c r="L429">
+        <v>999</v>
+      </c>
+      <c r="M429">
+        <v>999</v>
+      </c>
+      <c r="N429">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14">
+      <c r="A430" t="s">
+        <v>24</v>
+      </c>
+      <c r="B430">
+        <v>999</v>
+      </c>
+      <c r="C430">
+        <v>999</v>
+      </c>
+      <c r="D430">
+        <v>999</v>
+      </c>
+      <c r="E430">
+        <v>999</v>
+      </c>
+      <c r="F430">
+        <v>999</v>
+      </c>
+      <c r="G430">
+        <v>999</v>
+      </c>
+      <c r="H430">
+        <v>999</v>
+      </c>
+      <c r="I430">
+        <v>999</v>
+      </c>
+      <c r="J430">
+        <v>999</v>
+      </c>
+      <c r="K430">
+        <v>999</v>
+      </c>
+      <c r="L430">
+        <v>999</v>
+      </c>
+      <c r="M430">
+        <v>999</v>
+      </c>
+      <c r="N430">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14">
+      <c r="A431" t="s">
+        <v>24</v>
+      </c>
+      <c r="B431">
+        <v>0.02130764740221833</v>
+      </c>
+      <c r="C431">
+        <v>0.0008756567425569177</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="E431">
+        <v>0.003210741389375365</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+      <c r="G431">
+        <v>0.001459427904261529</v>
+      </c>
+      <c r="H431">
+        <v>0</v>
+      </c>
+      <c r="I431">
+        <v>0.0008756567425569177</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>0.0002918855808523059</v>
+      </c>
+      <c r="L431">
+        <v>0</v>
+      </c>
+      <c r="M431">
+        <v>0.0002918855808523059</v>
+      </c>
+      <c r="N431">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14">
+      <c r="A432" t="s">
+        <v>24</v>
+      </c>
+      <c r="B432">
+        <v>0.008884073672806067</v>
+      </c>
+      <c r="C432">
+        <v>0.0006500541711809318</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="E432">
+        <v>0.00238353196099675</v>
+      </c>
+      <c r="F432">
+        <v>0</v>
+      </c>
+      <c r="G432">
+        <v>0.0002166847237269772</v>
+      </c>
+      <c r="H432">
+        <v>0.000866738894907909</v>
+      </c>
+      <c r="I432">
+        <v>0.0004333694474539545</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>0</v>
+      </c>
+      <c r="L432">
+        <v>0.000866738894907909</v>
+      </c>
+      <c r="M432">
+        <v>0</v>
+      </c>
+      <c r="N432">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14">
+      <c r="A433" t="s">
+        <v>24</v>
+      </c>
+      <c r="B433">
+        <v>999</v>
+      </c>
+      <c r="C433">
+        <v>999</v>
+      </c>
+      <c r="D433">
+        <v>999</v>
+      </c>
+      <c r="E433">
+        <v>999</v>
+      </c>
+      <c r="F433">
+        <v>999</v>
+      </c>
+      <c r="G433">
+        <v>999</v>
+      </c>
+      <c r="H433">
+        <v>999</v>
+      </c>
+      <c r="I433">
+        <v>999</v>
+      </c>
+      <c r="J433">
+        <v>999</v>
+      </c>
+      <c r="K433">
+        <v>999</v>
+      </c>
+      <c r="L433">
+        <v>999</v>
+      </c>
+      <c r="M433">
+        <v>999</v>
+      </c>
+      <c r="N433">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14">
+      <c r="A434" t="s">
+        <v>24</v>
+      </c>
+      <c r="B434">
+        <v>0.006320779562812747</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+      <c r="E434">
+        <v>0.0002633658151171978</v>
+      </c>
+      <c r="F434">
+        <v>0</v>
+      </c>
+      <c r="G434">
+        <v>0.0002633658151171978</v>
+      </c>
+      <c r="H434">
+        <v>0</v>
+      </c>
+      <c r="I434">
+        <v>0.0007900974453515934</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>0</v>
+      </c>
+      <c r="L434">
+        <v>0.0005267316302343956</v>
+      </c>
+      <c r="M434">
+        <v>0</v>
+      </c>
+      <c r="N434">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14">
+      <c r="A435" t="s">
+        <v>24</v>
+      </c>
+      <c r="B435">
+        <v>0.008366291451171281</v>
+      </c>
+      <c r="C435">
+        <v>0.000608457560085184</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+      <c r="E435">
+        <v>0.00152114390021296</v>
+      </c>
+      <c r="F435">
+        <v>0.000152114390021296</v>
+      </c>
+      <c r="G435">
+        <v>0.000152114390021296</v>
+      </c>
+      <c r="H435">
+        <v>0.000608457560085184</v>
+      </c>
+      <c r="I435">
+        <v>0.0007605719501064801</v>
+      </c>
+      <c r="J435">
+        <v>0.000304228780042592</v>
+      </c>
+      <c r="K435">
+        <v>0.000152114390021296</v>
+      </c>
+      <c r="L435">
+        <v>0.000304228780042592</v>
+      </c>
+      <c r="M435">
+        <v>0.000304228780042592</v>
+      </c>
+      <c r="N435">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14">
+      <c r="A436" t="s">
+        <v>24</v>
+      </c>
+      <c r="B436">
+        <v>0.01265822784810127</v>
+      </c>
+      <c r="C436">
+        <v>0.0006027727546714888</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="E436">
+        <v>0.0006027727546714888</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+      <c r="G436">
+        <v>0</v>
+      </c>
+      <c r="H436">
+        <v>0</v>
+      </c>
+      <c r="I436">
+        <v>0.0006027727546714888</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>0</v>
+      </c>
+      <c r="L436">
+        <v>0</v>
+      </c>
+      <c r="M436">
+        <v>0.0006027727546714888</v>
+      </c>
+      <c r="N436">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14">
+      <c r="A437" t="s">
+        <v>24</v>
+      </c>
+      <c r="B437">
+        <v>999</v>
+      </c>
+      <c r="C437">
+        <v>999</v>
+      </c>
+      <c r="D437">
+        <v>999</v>
+      </c>
+      <c r="E437">
+        <v>999</v>
+      </c>
+      <c r="F437">
+        <v>999</v>
+      </c>
+      <c r="G437">
+        <v>999</v>
+      </c>
+      <c r="H437">
+        <v>999</v>
+      </c>
+      <c r="I437">
+        <v>999</v>
+      </c>
+      <c r="J437">
+        <v>999</v>
+      </c>
+      <c r="K437">
+        <v>999</v>
+      </c>
+      <c r="L437">
+        <v>999</v>
+      </c>
+      <c r="M437">
+        <v>999</v>
+      </c>
+      <c r="N437">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14">
+      <c r="A438" t="s">
+        <v>24</v>
+      </c>
+      <c r="B438">
+        <v>0.05460385438972163</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="E438">
+        <v>0.002141327623126338</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+      <c r="G438">
+        <v>0</v>
+      </c>
+      <c r="H438">
+        <v>0.001070663811563169</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>0</v>
+      </c>
+      <c r="L438">
+        <v>0</v>
+      </c>
+      <c r="M438">
+        <v>0</v>
+      </c>
+      <c r="N438">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14">
+      <c r="A439" t="s">
+        <v>24</v>
+      </c>
+      <c r="B439">
+        <v>999</v>
+      </c>
+      <c r="C439">
+        <v>999</v>
+      </c>
+      <c r="D439">
+        <v>999</v>
+      </c>
+      <c r="E439">
+        <v>999</v>
+      </c>
+      <c r="F439">
+        <v>999</v>
+      </c>
+      <c r="G439">
+        <v>999</v>
+      </c>
+      <c r="H439">
+        <v>999</v>
+      </c>
+      <c r="I439">
+        <v>999</v>
+      </c>
+      <c r="J439">
+        <v>999</v>
+      </c>
+      <c r="K439">
+        <v>999</v>
+      </c>
+      <c r="L439">
+        <v>999</v>
+      </c>
+      <c r="M439">
+        <v>999</v>
+      </c>
+      <c r="N439">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14">
+      <c r="A440" t="s">
+        <v>24</v>
+      </c>
+      <c r="B440">
+        <v>0.02080309627479439</v>
+      </c>
+      <c r="C440">
+        <v>0.0004837929366231253</v>
+      </c>
+      <c r="D440">
+        <v>0.0004837929366231253</v>
+      </c>
+      <c r="E440">
+        <v>0.0004837929366231253</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+      <c r="G440">
+        <v>0.0009675858732462506</v>
+      </c>
+      <c r="H440">
+        <v>0.001451378809869376</v>
+      </c>
+      <c r="I440">
+        <v>0.0004837929366231253</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440">
+        <v>0</v>
+      </c>
+      <c r="L440">
+        <v>0.0009675858732462506</v>
+      </c>
+      <c r="M440">
+        <v>0.0004837929366231253</v>
+      </c>
+      <c r="N440">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14">
+      <c r="A441" t="s">
+        <v>24</v>
+      </c>
+      <c r="B441">
+        <v>999</v>
+      </c>
+      <c r="C441">
+        <v>999</v>
+      </c>
+      <c r="D441">
+        <v>999</v>
+      </c>
+      <c r="E441">
+        <v>999</v>
+      </c>
+      <c r="F441">
+        <v>999</v>
+      </c>
+      <c r="G441">
+        <v>999</v>
+      </c>
+      <c r="H441">
+        <v>999</v>
+      </c>
+      <c r="I441">
+        <v>999</v>
+      </c>
+      <c r="J441">
+        <v>999</v>
+      </c>
+      <c r="K441">
+        <v>999</v>
+      </c>
+      <c r="L441">
+        <v>999</v>
+      </c>
+      <c r="M441">
+        <v>999</v>
+      </c>
+      <c r="N441">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14">
+      <c r="A442" t="s">
+        <v>24</v>
+      </c>
+      <c r="B442">
+        <v>999</v>
+      </c>
+      <c r="C442">
+        <v>999</v>
+      </c>
+      <c r="D442">
+        <v>999</v>
+      </c>
+      <c r="E442">
+        <v>999</v>
+      </c>
+      <c r="F442">
+        <v>999</v>
+      </c>
+      <c r="G442">
+        <v>999</v>
+      </c>
+      <c r="H442">
+        <v>999</v>
+      </c>
+      <c r="I442">
+        <v>999</v>
+      </c>
+      <c r="J442">
+        <v>999</v>
+      </c>
+      <c r="K442">
+        <v>999</v>
+      </c>
+      <c r="L442">
+        <v>999</v>
+      </c>
+      <c r="M442">
+        <v>999</v>
+      </c>
+      <c r="N442">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14">
+      <c r="A443" t="s">
+        <v>24</v>
+      </c>
+      <c r="B443">
+        <v>0.02938034188034188</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="E443">
+        <v>0.002136752136752137</v>
+      </c>
+      <c r="F443">
+        <v>0</v>
+      </c>
+      <c r="G443">
+        <v>0</v>
+      </c>
+      <c r="H443">
+        <v>0</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>0</v>
+      </c>
+      <c r="L443">
+        <v>0</v>
+      </c>
+      <c r="M443">
+        <v>0</v>
+      </c>
+      <c r="N443">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14">
+      <c r="A444" t="s">
+        <v>24</v>
+      </c>
+      <c r="B444">
+        <v>0.03494528768090364</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>0.0003529827038475115</v>
+      </c>
+      <c r="E444">
+        <v>0.003176844334627603</v>
+      </c>
+      <c r="F444">
+        <v>0.0003529827038475115</v>
+      </c>
+      <c r="G444">
+        <v>0.0003529827038475115</v>
+      </c>
+      <c r="H444">
+        <v>0.0003529827038475115</v>
+      </c>
+      <c r="I444">
+        <v>0.0003529827038475115</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>0.0007059654076950229</v>
+      </c>
+      <c r="L444">
+        <v>0</v>
+      </c>
+      <c r="M444">
+        <v>0</v>
+      </c>
+      <c r="N444">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14">
+      <c r="A445" t="s">
+        <v>24</v>
+      </c>
+      <c r="B445">
+        <v>0.04088121735180559</v>
+      </c>
+      <c r="C445">
+        <v>0.001135589370883489</v>
+      </c>
+      <c r="D445">
+        <v>0.0002271178741766977</v>
+      </c>
+      <c r="E445">
+        <v>0.001362707245060186</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+      <c r="G445">
+        <v>0.001135589370883489</v>
+      </c>
+      <c r="H445">
+        <v>0.0004542357483533954</v>
+      </c>
+      <c r="I445">
+        <v>0.003406768112650465</v>
+      </c>
+      <c r="J445">
+        <v>0.0006813536225300931</v>
+      </c>
+      <c r="K445">
+        <v>0.0009084714967067908</v>
+      </c>
+      <c r="L445">
+        <v>0.0004542357483533954</v>
+      </c>
+      <c r="M445">
+        <v>0.001589825119236884</v>
+      </c>
+      <c r="N445">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14">
+      <c r="A446" t="s">
+        <v>24</v>
+      </c>
+      <c r="B446">
+        <v>0.03897637795275591</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <v>0.0003937007874015748</v>
+      </c>
+      <c r="E446">
+        <v>0.001574803149606299</v>
+      </c>
+      <c r="F446">
+        <v>0.0003937007874015748</v>
+      </c>
+      <c r="G446">
+        <v>0.0007874015748031496</v>
+      </c>
+      <c r="H446">
+        <v>0.001181102362204724</v>
+      </c>
+      <c r="I446">
+        <v>0.001968503937007874</v>
+      </c>
+      <c r="J446">
+        <v>0.0003937007874015748</v>
+      </c>
+      <c r="K446">
+        <v>0.0007874015748031496</v>
+      </c>
+      <c r="L446">
+        <v>0</v>
+      </c>
+      <c r="M446">
+        <v>0.0007874015748031496</v>
+      </c>
+      <c r="N446">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14">
+      <c r="A447" t="s">
+        <v>24</v>
+      </c>
+      <c r="B447">
+        <v>0.04535996670828132</v>
+      </c>
+      <c r="C447">
+        <v>0.0004161464835622139</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+      <c r="E447">
+        <v>0.003329171868497711</v>
+      </c>
+      <c r="F447">
+        <v>0</v>
+      </c>
+      <c r="G447">
+        <v>0.0008322929671244278</v>
+      </c>
+      <c r="H447">
+        <v>0.001664585934248856</v>
+      </c>
+      <c r="I447">
+        <v>0.002496878901373283</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
+      <c r="L447">
+        <v>0</v>
+      </c>
+      <c r="M447">
+        <v>0.0008322929671244278</v>
+      </c>
+      <c r="N447">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14">
+      <c r="A448" t="s">
+        <v>24</v>
+      </c>
+      <c r="B448">
+        <v>0.04523026315789474</v>
+      </c>
+      <c r="C448">
+        <v>0.0008223684210526315</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>0.001233552631578947</v>
+      </c>
+      <c r="F448">
+        <v>0.0004111842105263158</v>
+      </c>
+      <c r="G448">
+        <v>0.0004111842105263158</v>
+      </c>
+      <c r="H448">
+        <v>0.0004111842105263158</v>
+      </c>
+      <c r="I448">
+        <v>0.0004111842105263158</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>0.0008223684210526315</v>
+      </c>
+      <c r="L448">
+        <v>0</v>
+      </c>
+      <c r="M448">
+        <v>0.0004111842105263158</v>
+      </c>
+      <c r="N448">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14">
+      <c r="A449" t="s">
+        <v>24</v>
+      </c>
+      <c r="B449">
+        <v>0.04432301153612629</v>
+      </c>
+      <c r="C449">
+        <v>0.001214329083181542</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>0.0006071645415907711</v>
+      </c>
+      <c r="F449">
+        <v>0.0006071645415907711</v>
+      </c>
+      <c r="G449">
+        <v>0.0006071645415907711</v>
+      </c>
+      <c r="H449">
+        <v>0.001821493624772313</v>
+      </c>
+      <c r="I449">
+        <v>0.0006071645415907711</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449">
+        <v>0.002428658166363085</v>
+      </c>
+      <c r="L449">
+        <v>0</v>
+      </c>
+      <c r="M449">
+        <v>0.0006071645415907711</v>
+      </c>
+      <c r="N449">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14">
+      <c r="A450" t="s">
+        <v>24</v>
+      </c>
+      <c r="B450">
+        <v>0.03116260487415102</v>
+      </c>
+      <c r="C450">
+        <v>0.0007990411506192569</v>
+      </c>
+      <c r="D450">
+        <v>0.0003995205753096284</v>
+      </c>
+      <c r="E450">
+        <v>0.001598082301238514</v>
+      </c>
+      <c r="F450">
+        <v>0</v>
+      </c>
+      <c r="G450">
+        <v>0.0003995205753096284</v>
+      </c>
+      <c r="H450">
+        <v>0</v>
+      </c>
+      <c r="I450">
+        <v>0.0007990411506192569</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>0.002796644027167399</v>
+      </c>
+      <c r="L450">
+        <v>0.0003995205753096284</v>
+      </c>
+      <c r="M450">
+        <v>0</v>
+      </c>
+      <c r="N450">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14">
+      <c r="A451" t="s">
+        <v>24</v>
+      </c>
+      <c r="B451">
+        <v>0.04380841121495327</v>
+      </c>
+      <c r="C451">
+        <v>0.0005841121495327102</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+      <c r="E451">
+        <v>0.0005841121495327102</v>
+      </c>
+      <c r="F451">
+        <v>0.0005841121495327102</v>
+      </c>
+      <c r="G451">
+        <v>0</v>
+      </c>
+      <c r="H451">
+        <v>0.002336448598130841</v>
+      </c>
+      <c r="I451">
+        <v>0.0005841121495327102</v>
+      </c>
+      <c r="J451">
+        <v>0.00116822429906542</v>
+      </c>
+      <c r="K451">
+        <v>0</v>
+      </c>
+      <c r="L451">
+        <v>0</v>
+      </c>
+      <c r="M451">
+        <v>0</v>
+      </c>
+      <c r="N451">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14">
+      <c r="A452" t="s">
+        <v>24</v>
+      </c>
+      <c r="B452">
+        <v>0.04640442532267978</v>
+      </c>
+      <c r="C452">
+        <v>0.0003073140749846343</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+      <c r="E452">
+        <v>0.003687768899815611</v>
+      </c>
+      <c r="F452">
+        <v>0.0003073140749846343</v>
+      </c>
+      <c r="G452">
+        <v>0.0003073140749846343</v>
+      </c>
+      <c r="H452">
+        <v>0.0009219422249539029</v>
+      </c>
+      <c r="I452">
+        <v>0.0003073140749846343</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>0.0006146281499692685</v>
+      </c>
+      <c r="L452">
+        <v>0</v>
+      </c>
+      <c r="M452">
+        <v>0.0006146281499692685</v>
+      </c>
+      <c r="N452">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14">
+      <c r="A453" t="s">
+        <v>25</v>
+      </c>
+      <c r="B453">
+        <v>999</v>
+      </c>
+      <c r="C453">
+        <v>999</v>
+      </c>
+      <c r="D453">
+        <v>999</v>
+      </c>
+      <c r="E453">
+        <v>999</v>
+      </c>
+      <c r="F453">
+        <v>999</v>
+      </c>
+      <c r="G453">
+        <v>999</v>
+      </c>
+      <c r="H453">
+        <v>999</v>
+      </c>
+      <c r="I453">
+        <v>999</v>
+      </c>
+      <c r="J453">
+        <v>999</v>
+      </c>
+      <c r="K453">
+        <v>999</v>
+      </c>
+      <c r="L453">
+        <v>999</v>
+      </c>
+      <c r="M453">
+        <v>999</v>
+      </c>
+      <c r="N453">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14">
+      <c r="A454" t="s">
+        <v>25</v>
+      </c>
+      <c r="B454">
+        <v>999</v>
+      </c>
+      <c r="C454">
+        <v>999</v>
+      </c>
+      <c r="D454">
+        <v>999</v>
+      </c>
+      <c r="E454">
+        <v>999</v>
+      </c>
+      <c r="F454">
+        <v>999</v>
+      </c>
+      <c r="G454">
+        <v>999</v>
+      </c>
+      <c r="H454">
+        <v>999</v>
+      </c>
+      <c r="I454">
+        <v>999</v>
+      </c>
+      <c r="J454">
+        <v>999</v>
+      </c>
+      <c r="K454">
+        <v>999</v>
+      </c>
+      <c r="L454">
+        <v>999</v>
+      </c>
+      <c r="M454">
+        <v>999</v>
+      </c>
+      <c r="N454">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14">
+      <c r="A455" t="s">
+        <v>25</v>
+      </c>
+      <c r="B455">
+        <v>999</v>
+      </c>
+      <c r="C455">
+        <v>999</v>
+      </c>
+      <c r="D455">
+        <v>999</v>
+      </c>
+      <c r="E455">
+        <v>999</v>
+      </c>
+      <c r="F455">
+        <v>999</v>
+      </c>
+      <c r="G455">
+        <v>999</v>
+      </c>
+      <c r="H455">
+        <v>999</v>
+      </c>
+      <c r="I455">
+        <v>999</v>
+      </c>
+      <c r="J455">
+        <v>999</v>
+      </c>
+      <c r="K455">
+        <v>999</v>
+      </c>
+      <c r="L455">
+        <v>999</v>
+      </c>
+      <c r="M455">
+        <v>999</v>
+      </c>
+      <c r="N455">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14">
+      <c r="A456" t="s">
+        <v>25</v>
+      </c>
+      <c r="B456">
+        <v>999</v>
+      </c>
+      <c r="C456">
+        <v>999</v>
+      </c>
+      <c r="D456">
+        <v>999</v>
+      </c>
+      <c r="E456">
+        <v>999</v>
+      </c>
+      <c r="F456">
+        <v>999</v>
+      </c>
+      <c r="G456">
+        <v>999</v>
+      </c>
+      <c r="H456">
+        <v>999</v>
+      </c>
+      <c r="I456">
+        <v>999</v>
+      </c>
+      <c r="J456">
+        <v>999</v>
+      </c>
+      <c r="K456">
+        <v>999</v>
+      </c>
+      <c r="L456">
+        <v>999</v>
+      </c>
+      <c r="M456">
+        <v>999</v>
+      </c>
+      <c r="N456">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14">
+      <c r="A457" t="s">
+        <v>25</v>
+      </c>
+      <c r="B457">
+        <v>999</v>
+      </c>
+      <c r="C457">
+        <v>999</v>
+      </c>
+      <c r="D457">
+        <v>999</v>
+      </c>
+      <c r="E457">
+        <v>999</v>
+      </c>
+      <c r="F457">
+        <v>999</v>
+      </c>
+      <c r="G457">
+        <v>999</v>
+      </c>
+      <c r="H457">
+        <v>999</v>
+      </c>
+      <c r="I457">
+        <v>999</v>
+      </c>
+      <c r="J457">
+        <v>999</v>
+      </c>
+      <c r="K457">
+        <v>999</v>
+      </c>
+      <c r="L457">
+        <v>999</v>
+      </c>
+      <c r="M457">
+        <v>999</v>
+      </c>
+      <c r="N457">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14">
+      <c r="A458" t="s">
+        <v>25</v>
+      </c>
+      <c r="B458">
+        <v>999</v>
+      </c>
+      <c r="C458">
+        <v>999</v>
+      </c>
+      <c r="D458">
+        <v>999</v>
+      </c>
+      <c r="E458">
+        <v>999</v>
+      </c>
+      <c r="F458">
+        <v>999</v>
+      </c>
+      <c r="G458">
+        <v>999</v>
+      </c>
+      <c r="H458">
+        <v>999</v>
+      </c>
+      <c r="I458">
+        <v>999</v>
+      </c>
+      <c r="J458">
+        <v>999</v>
+      </c>
+      <c r="K458">
+        <v>999</v>
+      </c>
+      <c r="L458">
+        <v>999</v>
+      </c>
+      <c r="M458">
+        <v>999</v>
+      </c>
+      <c r="N458">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14">
+      <c r="A459" t="s">
+        <v>25</v>
+      </c>
+      <c r="B459">
+        <v>999</v>
+      </c>
+      <c r="C459">
+        <v>999</v>
+      </c>
+      <c r="D459">
+        <v>999</v>
+      </c>
+      <c r="E459">
+        <v>999</v>
+      </c>
+      <c r="F459">
+        <v>999</v>
+      </c>
+      <c r="G459">
+        <v>999</v>
+      </c>
+      <c r="H459">
+        <v>999</v>
+      </c>
+      <c r="I459">
+        <v>999</v>
+      </c>
+      <c r="J459">
+        <v>999</v>
+      </c>
+      <c r="K459">
+        <v>999</v>
+      </c>
+      <c r="L459">
+        <v>999</v>
+      </c>
+      <c r="M459">
+        <v>999</v>
+      </c>
+      <c r="N459">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14">
+      <c r="A460" t="s">
+        <v>25</v>
+      </c>
+      <c r="B460">
+        <v>999</v>
+      </c>
+      <c r="C460">
+        <v>999</v>
+      </c>
+      <c r="D460">
+        <v>999</v>
+      </c>
+      <c r="E460">
+        <v>999</v>
+      </c>
+      <c r="F460">
+        <v>999</v>
+      </c>
+      <c r="G460">
+        <v>999</v>
+      </c>
+      <c r="H460">
+        <v>999</v>
+      </c>
+      <c r="I460">
+        <v>999</v>
+      </c>
+      <c r="J460">
+        <v>999</v>
+      </c>
+      <c r="K460">
+        <v>999</v>
+      </c>
+      <c r="L460">
+        <v>999</v>
+      </c>
+      <c r="M460">
+        <v>999</v>
+      </c>
+      <c r="N460">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14">
+      <c r="A461" t="s">
+        <v>25</v>
+      </c>
+      <c r="B461">
+        <v>999</v>
+      </c>
+      <c r="C461">
+        <v>999</v>
+      </c>
+      <c r="D461">
+        <v>999</v>
+      </c>
+      <c r="E461">
+        <v>999</v>
+      </c>
+      <c r="F461">
+        <v>999</v>
+      </c>
+      <c r="G461">
+        <v>999</v>
+      </c>
+      <c r="H461">
+        <v>999</v>
+      </c>
+      <c r="I461">
+        <v>999</v>
+      </c>
+      <c r="J461">
+        <v>999</v>
+      </c>
+      <c r="K461">
+        <v>999</v>
+      </c>
+      <c r="L461">
+        <v>999</v>
+      </c>
+      <c r="M461">
+        <v>999</v>
+      </c>
+      <c r="N461">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14">
+      <c r="A462" t="s">
+        <v>25</v>
+      </c>
+      <c r="B462">
+        <v>999</v>
+      </c>
+      <c r="C462">
+        <v>999</v>
+      </c>
+      <c r="D462">
+        <v>999</v>
+      </c>
+      <c r="E462">
+        <v>999</v>
+      </c>
+      <c r="F462">
+        <v>999</v>
+      </c>
+      <c r="G462">
+        <v>999</v>
+      </c>
+      <c r="H462">
+        <v>999</v>
+      </c>
+      <c r="I462">
+        <v>999</v>
+      </c>
+      <c r="J462">
+        <v>999</v>
+      </c>
+      <c r="K462">
+        <v>999</v>
+      </c>
+      <c r="L462">
+        <v>999</v>
+      </c>
+      <c r="M462">
+        <v>999</v>
+      </c>
+      <c r="N462">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="463" spans="1:14">
+      <c r="A463" t="s">
+        <v>25</v>
+      </c>
+      <c r="B463">
+        <v>999</v>
+      </c>
+      <c r="C463">
+        <v>999</v>
+      </c>
+      <c r="D463">
+        <v>999</v>
+      </c>
+      <c r="E463">
+        <v>999</v>
+      </c>
+      <c r="F463">
+        <v>999</v>
+      </c>
+      <c r="G463">
+        <v>999</v>
+      </c>
+      <c r="H463">
+        <v>999</v>
+      </c>
+      <c r="I463">
+        <v>999</v>
+      </c>
+      <c r="J463">
+        <v>999</v>
+      </c>
+      <c r="K463">
+        <v>999</v>
+      </c>
+      <c r="L463">
+        <v>999</v>
+      </c>
+      <c r="M463">
+        <v>999</v>
+      </c>
+      <c r="N463">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14">
+      <c r="A464" t="s">
+        <v>25</v>
+      </c>
+      <c r="B464">
+        <v>999</v>
+      </c>
+      <c r="C464">
+        <v>999</v>
+      </c>
+      <c r="D464">
+        <v>999</v>
+      </c>
+      <c r="E464">
+        <v>999</v>
+      </c>
+      <c r="F464">
+        <v>999</v>
+      </c>
+      <c r="G464">
+        <v>999</v>
+      </c>
+      <c r="H464">
+        <v>999</v>
+      </c>
+      <c r="I464">
+        <v>999</v>
+      </c>
+      <c r="J464">
+        <v>999</v>
+      </c>
+      <c r="K464">
+        <v>999</v>
+      </c>
+      <c r="L464">
+        <v>999</v>
+      </c>
+      <c r="M464">
+        <v>999</v>
+      </c>
+      <c r="N464">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="465" spans="1:14">
+      <c r="A465" t="s">
+        <v>25</v>
+      </c>
+      <c r="B465">
+        <v>999</v>
+      </c>
+      <c r="C465">
+        <v>999</v>
+      </c>
+      <c r="D465">
+        <v>999</v>
+      </c>
+      <c r="E465">
+        <v>999</v>
+      </c>
+      <c r="F465">
+        <v>999</v>
+      </c>
+      <c r="G465">
+        <v>999</v>
+      </c>
+      <c r="H465">
+        <v>999</v>
+      </c>
+      <c r="I465">
+        <v>999</v>
+      </c>
+      <c r="J465">
+        <v>999</v>
+      </c>
+      <c r="K465">
+        <v>999</v>
+      </c>
+      <c r="L465">
+        <v>999</v>
+      </c>
+      <c r="M465">
+        <v>999</v>
+      </c>
+      <c r="N465">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="466" spans="1:14">
+      <c r="A466" t="s">
+        <v>25</v>
+      </c>
+      <c r="B466">
+        <v>999</v>
+      </c>
+      <c r="C466">
+        <v>999</v>
+      </c>
+      <c r="D466">
+        <v>999</v>
+      </c>
+      <c r="E466">
+        <v>999</v>
+      </c>
+      <c r="F466">
+        <v>999</v>
+      </c>
+      <c r="G466">
+        <v>999</v>
+      </c>
+      <c r="H466">
+        <v>999</v>
+      </c>
+      <c r="I466">
+        <v>999</v>
+      </c>
+      <c r="J466">
+        <v>999</v>
+      </c>
+      <c r="K466">
+        <v>999</v>
+      </c>
+      <c r="L466">
+        <v>999</v>
+      </c>
+      <c r="M466">
+        <v>999</v>
+      </c>
+      <c r="N466">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14">
+      <c r="A467" t="s">
+        <v>25</v>
+      </c>
+      <c r="B467">
+        <v>0.05077574047954866</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>0</v>
+      </c>
+      <c r="G467">
+        <v>0</v>
+      </c>
+      <c r="H467">
+        <v>0</v>
+      </c>
+      <c r="I467">
+        <v>0</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467">
+        <v>0.004231311706629055</v>
+      </c>
+      <c r="L467">
+        <v>0</v>
+      </c>
+      <c r="M467">
+        <v>0</v>
+      </c>
+      <c r="N467">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14">
+      <c r="A468" t="s">
+        <v>25</v>
+      </c>
+      <c r="B468">
+        <v>0.01823154056517776</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <v>0.0004557885141294439</v>
+      </c>
+      <c r="E468">
+        <v>0.00227894257064722</v>
+      </c>
+      <c r="F468">
+        <v>0.0004557885141294439</v>
+      </c>
+      <c r="G468">
+        <v>0</v>
+      </c>
+      <c r="H468">
+        <v>0.0004557885141294439</v>
+      </c>
+      <c r="I468">
+        <v>0.001367365542388332</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="K468">
+        <v>0.0004557885141294439</v>
+      </c>
+      <c r="L468">
+        <v>0</v>
+      </c>
+      <c r="M468">
+        <v>0.0004557885141294439</v>
+      </c>
+      <c r="N468">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14">
+      <c r="A469" t="s">
+        <v>25</v>
+      </c>
+      <c r="B469">
+        <v>0.02870090634441088</v>
+      </c>
+      <c r="C469">
+        <v>0.001007049345417925</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+      <c r="E469">
+        <v>0.003021148036253776</v>
+      </c>
+      <c r="F469">
+        <v>0</v>
+      </c>
+      <c r="G469">
+        <v>0.0005035246727089627</v>
+      </c>
+      <c r="H469">
+        <v>0.0005035246727089627</v>
+      </c>
+      <c r="I469">
+        <v>0.0005035246727089627</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="K469">
+        <v>0.001007049345417925</v>
+      </c>
+      <c r="L469">
+        <v>0.0005035246727089627</v>
+      </c>
+      <c r="M469">
+        <v>0</v>
+      </c>
+      <c r="N469">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14">
+      <c r="A470" t="s">
+        <v>25</v>
+      </c>
+      <c r="B470">
+        <v>0.01469723691945914</v>
+      </c>
+      <c r="C470">
+        <v>0.0002939447383891828</v>
+      </c>
+      <c r="D470">
+        <v>0.0008818342151675485</v>
+      </c>
+      <c r="E470">
+        <v>0.001469723691945914</v>
+      </c>
+      <c r="F470">
+        <v>0</v>
+      </c>
+      <c r="G470">
+        <v>0.0008818342151675485</v>
+      </c>
+      <c r="H470">
+        <v>0.0008818342151675485</v>
+      </c>
+      <c r="I470">
+        <v>0.001469723691945914</v>
+      </c>
+      <c r="J470">
+        <v>0.0002939447383891828</v>
+      </c>
+      <c r="K470">
+        <v>0</v>
+      </c>
+      <c r="L470">
+        <v>0.0005878894767783657</v>
+      </c>
+      <c r="M470">
+        <v>0</v>
+      </c>
+      <c r="N470">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14">
+      <c r="A471" t="s">
+        <v>25</v>
+      </c>
+      <c r="B471">
+        <v>0.006572461386789352</v>
+      </c>
+      <c r="C471">
+        <v>0.000985869208018403</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471">
+        <v>0.002300361485376273</v>
+      </c>
+      <c r="F471">
+        <v>0.0003286230693394677</v>
+      </c>
+      <c r="G471">
+        <v>0.0003286230693394677</v>
+      </c>
+      <c r="H471">
+        <v>0.000985869208018403</v>
+      </c>
+      <c r="I471">
+        <v>0.0003286230693394677</v>
+      </c>
+      <c r="J471">
+        <v>0.0003286230693394677</v>
+      </c>
+      <c r="K471">
+        <v>0</v>
+      </c>
+      <c r="L471">
+        <v>0.0006572461386789353</v>
+      </c>
+      <c r="M471">
+        <v>0.0003286230693394677</v>
+      </c>
+      <c r="N471">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14">
+      <c r="A472" t="s">
+        <v>25</v>
+      </c>
+      <c r="B472">
+        <v>0.008067769261799113</v>
+      </c>
+      <c r="C472">
+        <v>0.0002016942315449778</v>
+      </c>
+      <c r="D472">
+        <v>0.0004033884630899556</v>
+      </c>
+      <c r="E472">
+        <v>0.0008067769261799112</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+      <c r="G472">
+        <v>0.0004033884630899556</v>
+      </c>
+      <c r="H472">
+        <v>0.0006050826946349334</v>
+      </c>
+      <c r="I472">
+        <v>0.001008471157724889</v>
+      </c>
+      <c r="J472">
+        <v>0.0002016942315449778</v>
+      </c>
+      <c r="K472">
+        <v>0</v>
+      </c>
+      <c r="L472">
+        <v>0</v>
+      </c>
+      <c r="M472">
+        <v>0.0006050826946349334</v>
+      </c>
+      <c r="N472">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14">
+      <c r="A473" t="s">
+        <v>25</v>
+      </c>
+      <c r="B473">
+        <v>999</v>
+      </c>
+      <c r="C473">
+        <v>999</v>
+      </c>
+      <c r="D473">
+        <v>999</v>
+      </c>
+      <c r="E473">
+        <v>999</v>
+      </c>
+      <c r="F473">
+        <v>999</v>
+      </c>
+      <c r="G473">
+        <v>999</v>
+      </c>
+      <c r="H473">
+        <v>999</v>
+      </c>
+      <c r="I473">
+        <v>999</v>
+      </c>
+      <c r="J473">
+        <v>999</v>
+      </c>
+      <c r="K473">
+        <v>999</v>
+      </c>
+      <c r="L473">
+        <v>999</v>
+      </c>
+      <c r="M473">
+        <v>999</v>
+      </c>
+      <c r="N473">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14">
+      <c r="A474" t="s">
+        <v>25</v>
+      </c>
+      <c r="B474">
+        <v>0.005798629414865577</v>
+      </c>
+      <c r="C474">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+      <c r="E474">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="F474">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="G474">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="H474">
+        <v>0</v>
+      </c>
+      <c r="I474">
+        <v>0.00316288877174486</v>
+      </c>
+      <c r="J474">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="K474">
+        <v>0</v>
+      </c>
+      <c r="L474">
+        <v>0</v>
+      </c>
+      <c r="M474">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="N474">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14">
+      <c r="A475" t="s">
+        <v>25</v>
+      </c>
+      <c r="B475">
+        <v>0.02259887005649718</v>
+      </c>
+      <c r="C475">
+        <v>0.0002456398919184475</v>
+      </c>
+      <c r="D475">
+        <v>0.0004912797838368951</v>
+      </c>
+      <c r="E475">
+        <v>0.0007369196757553427</v>
+      </c>
+      <c r="F475">
+        <v>0.0007369196757553427</v>
+      </c>
+      <c r="G475">
+        <v>0</v>
+      </c>
+      <c r="H475">
+        <v>0.0002456398919184475</v>
+      </c>
+      <c r="I475">
+        <v>0.00196511913534758</v>
+      </c>
+      <c r="J475">
+        <v>0.0002456398919184475</v>
+      </c>
+      <c r="K475">
+        <v>0.0002456398919184475</v>
+      </c>
+      <c r="L475">
+        <v>0</v>
+      </c>
+      <c r="M475">
+        <v>0.0004912797838368951</v>
+      </c>
+      <c r="N475">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14">
+      <c r="A476" t="s">
+        <v>25</v>
+      </c>
+      <c r="B476">
+        <v>0.002923976608187134</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>0.001461988304093567</v>
+      </c>
+      <c r="E476">
+        <v>0.001461988304093567</v>
+      </c>
+      <c r="F476">
+        <v>0</v>
+      </c>
+      <c r="G476">
+        <v>0.001461988304093567</v>
+      </c>
+      <c r="H476">
+        <v>0</v>
+      </c>
+      <c r="I476">
+        <v>0.001461988304093567</v>
+      </c>
+      <c r="J476">
+        <v>0</v>
+      </c>
+      <c r="K476">
+        <v>0.001461988304093567</v>
+      </c>
+      <c r="L476">
+        <v>0</v>
+      </c>
+      <c r="M476">
+        <v>0.002923976608187134</v>
+      </c>
+      <c r="N476">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="477" spans="1:14">
+      <c r="A477" t="s">
+        <v>25</v>
+      </c>
+      <c r="B477">
+        <v>0.02094240837696335</v>
+      </c>
+      <c r="C477">
+        <v>0.005235602094240838</v>
+      </c>
+      <c r="D477">
+        <v>0.005235602094240838</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>0</v>
+      </c>
+      <c r="G477">
+        <v>0</v>
+      </c>
+      <c r="H477">
+        <v>0</v>
+      </c>
+      <c r="I477">
+        <v>0</v>
+      </c>
+      <c r="J477">
+        <v>0</v>
+      </c>
+      <c r="K477">
+        <v>0</v>
+      </c>
+      <c r="L477">
+        <v>0</v>
+      </c>
+      <c r="M477">
+        <v>0</v>
+      </c>
+      <c r="N477">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="478" spans="1:14">
+      <c r="A478" t="s">
+        <v>25</v>
+      </c>
+      <c r="B478">
+        <v>0.02404809619238477</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+      <c r="E478">
+        <v>0.002004008016032064</v>
+      </c>
+      <c r="F478">
+        <v>0</v>
+      </c>
+      <c r="G478">
+        <v>0.002004008016032064</v>
+      </c>
+      <c r="H478">
+        <v>0</v>
+      </c>
+      <c r="I478">
+        <v>0.002004008016032064</v>
+      </c>
+      <c r="J478">
+        <v>0</v>
+      </c>
+      <c r="K478">
+        <v>0</v>
+      </c>
+      <c r="L478">
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="M478">
+        <v>0</v>
+      </c>
+      <c r="N478">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14">
+      <c r="A479" t="s">
+        <v>25</v>
+      </c>
+      <c r="B479">
+        <v>0.0299636803874092</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
+        <v>0.0003026634382566586</v>
+      </c>
+      <c r="E479">
+        <v>0.00211864406779661</v>
+      </c>
+      <c r="F479">
+        <v>0.0006053268765133172</v>
+      </c>
+      <c r="G479">
+        <v>0</v>
+      </c>
+      <c r="H479">
+        <v>0.0006053268765133172</v>
+      </c>
+      <c r="I479">
+        <v>0.0009079903147699758</v>
+      </c>
+      <c r="J479">
+        <v>0</v>
+      </c>
+      <c r="K479">
+        <v>0.0006053268765133172</v>
+      </c>
+      <c r="L479">
+        <v>0.0003026634382566586</v>
+      </c>
+      <c r="M479">
+        <v>0.0006053268765133172</v>
+      </c>
+      <c r="N479">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="480" spans="1:14">
+      <c r="A480" t="s">
+        <v>25</v>
+      </c>
+      <c r="B480">
+        <v>0.02643329165922486</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>0.000893016610108948</v>
+      </c>
+      <c r="E480">
+        <v>0.001428826576174317</v>
+      </c>
+      <c r="F480">
+        <v>0</v>
+      </c>
+      <c r="G480">
+        <v>0.0001786033220217896</v>
+      </c>
+      <c r="H480">
+        <v>0.000893016610108948</v>
+      </c>
+      <c r="I480">
+        <v>0.002679049830326844</v>
+      </c>
+      <c r="J480">
+        <v>0</v>
+      </c>
+      <c r="K480">
+        <v>0.0005358099660653688</v>
+      </c>
+      <c r="L480">
+        <v>0</v>
+      </c>
+      <c r="M480">
+        <v>0.0007144132880871584</v>
+      </c>
+      <c r="N480">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="481" spans="1:14">
+      <c r="A481" t="s">
+        <v>25</v>
+      </c>
+      <c r="B481">
+        <v>0.03105590062111801</v>
+      </c>
+      <c r="C481">
+        <v>0.0005323868677905945</v>
+      </c>
+      <c r="D481">
+        <v>0.001064773735581189</v>
+      </c>
+      <c r="E481">
+        <v>0.001242236024844721</v>
+      </c>
+      <c r="F481">
+        <v>0.0001774622892635315</v>
+      </c>
+      <c r="G481">
+        <v>0</v>
+      </c>
+      <c r="H481">
+        <v>0.001597160603371784</v>
+      </c>
+      <c r="I481">
+        <v>0.001597160603371784</v>
+      </c>
+      <c r="J481">
+        <v>0.0001774622892635315</v>
+      </c>
+      <c r="K481">
+        <v>0.0001774622892635315</v>
+      </c>
+      <c r="L481">
+        <v>0.0001774622892635315</v>
+      </c>
+      <c r="M481">
+        <v>0.001064773735581189</v>
+      </c>
+      <c r="N481">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="482" spans="1:14">
+      <c r="A482" t="s">
+        <v>25</v>
+      </c>
+      <c r="B482">
+        <v>0.02602158828064765</v>
+      </c>
+      <c r="C482">
+        <v>0.0001927525057825752</v>
+      </c>
+      <c r="D482">
+        <v>0.0005782575173477255</v>
+      </c>
+      <c r="E482">
+        <v>0.001734772552043176</v>
+      </c>
+      <c r="F482">
+        <v>0</v>
+      </c>
+      <c r="G482">
+        <v>0.0003855050115651503</v>
+      </c>
+      <c r="H482">
+        <v>0.002120277563608327</v>
+      </c>
+      <c r="I482">
+        <v>0.001156515034695451</v>
+      </c>
+      <c r="J482">
+        <v>0</v>
+      </c>
+      <c r="K482">
+        <v>0.0001927525057825752</v>
+      </c>
+      <c r="L482">
+        <v>0.0001927525057825752</v>
+      </c>
+      <c r="M482">
+        <v>0.0005782575173477255</v>
+      </c>
+      <c r="N482">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="483" spans="1:14">
+      <c r="A483" t="s">
+        <v>25</v>
+      </c>
+      <c r="B483">
+        <v>0.02246696035242291</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483">
+        <v>0.0004405286343612335</v>
+      </c>
+      <c r="E483">
+        <v>0.002202643171806168</v>
+      </c>
+      <c r="F483">
+        <v>0</v>
+      </c>
+      <c r="G483">
+        <v>0.0004405286343612335</v>
+      </c>
+      <c r="H483">
+        <v>0.0013215859030837</v>
+      </c>
+      <c r="I483">
+        <v>0.000881057268722467</v>
+      </c>
+      <c r="J483">
+        <v>0</v>
+      </c>
+      <c r="K483">
+        <v>0.0004405286343612335</v>
+      </c>
+      <c r="L483">
+        <v>0.000881057268722467</v>
+      </c>
+      <c r="M483">
+        <v>0.0004405286343612335</v>
+      </c>
+      <c r="N483">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="484" spans="1:14">
+      <c r="A484" t="s">
+        <v>25</v>
+      </c>
+      <c r="B484">
+        <v>0.04193548387096774</v>
+      </c>
+      <c r="C484">
+        <v>0.0003225806451612903</v>
+      </c>
+      <c r="D484">
+        <v>0.0003225806451612903</v>
+      </c>
+      <c r="E484">
+        <v>0.002580645161290323</v>
+      </c>
+      <c r="F484">
+        <v>0</v>
+      </c>
+      <c r="G484">
+        <v>0.001129032258064516</v>
+      </c>
+      <c r="H484">
+        <v>0.0008064516129032258</v>
+      </c>
+      <c r="I484">
+        <v>0.000967741935483871</v>
+      </c>
+      <c r="J484">
+        <v>0.0003225806451612903</v>
+      </c>
+      <c r="K484">
+        <v>0.0001612903225806452</v>
+      </c>
+      <c r="L484">
+        <v>0.0003225806451612903</v>
+      </c>
+      <c r="M484">
+        <v>0.0008064516129032258</v>
+      </c>
+      <c r="N484">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="485" spans="1:14">
+      <c r="A485" t="s">
+        <v>25</v>
+      </c>
+      <c r="B485">
+        <v>0.04356647090229578</v>
+      </c>
+      <c r="C485">
+        <v>0.001174586225306994</v>
+      </c>
+      <c r="D485">
+        <v>0.0004271222637479979</v>
+      </c>
+      <c r="E485">
+        <v>0.002776294714361986</v>
+      </c>
+      <c r="F485">
+        <v>0</v>
+      </c>
+      <c r="G485">
+        <v>0.0008542445274959958</v>
+      </c>
+      <c r="H485">
+        <v>0.001281366791243994</v>
+      </c>
+      <c r="I485">
+        <v>0.0006406833956219968</v>
+      </c>
+      <c r="J485">
+        <v>0.0001067805659369995</v>
+      </c>
+      <c r="K485">
+        <v>0</v>
+      </c>
+      <c r="L485">
+        <v>0.0004271222637479979</v>
+      </c>
+      <c r="M485">
+        <v>0.0003203416978109984</v>
+      </c>
+      <c r="N485">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="486" spans="1:14">
+      <c r="A486" t="s">
+        <v>25</v>
+      </c>
+      <c r="B486">
+        <v>0.0271841019872516</v>
+      </c>
+      <c r="C486">
+        <v>0.0003749531308586427</v>
+      </c>
+      <c r="D486">
+        <v>0.0003749531308586427</v>
+      </c>
+      <c r="E486">
+        <v>0.001499812523434571</v>
+      </c>
+      <c r="F486">
+        <v>0</v>
+      </c>
+      <c r="G486">
+        <v>0.0009373828271466067</v>
+      </c>
+      <c r="H486">
+        <v>0.002249718785151856</v>
+      </c>
+      <c r="I486">
+        <v>0.0007499062617172854</v>
+      </c>
+      <c r="J486">
+        <v>0</v>
+      </c>
+      <c r="K486">
+        <v>0.0001874765654293213</v>
+      </c>
+      <c r="L486">
+        <v>0.0001874765654293213</v>
+      </c>
+      <c r="M486">
+        <v>0.0007499062617172854</v>
+      </c>
+      <c r="N486">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="487" spans="1:14">
+      <c r="A487" t="s">
+        <v>25</v>
+      </c>
+      <c r="B487">
+        <v>0.01282727112985416</v>
+      </c>
+      <c r="C487">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="D487">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="E487">
+        <v>0.003690036900369004</v>
+      </c>
+      <c r="F487">
+        <v>0.0001757160428747145</v>
+      </c>
+      <c r="G487">
+        <v>0.0003514320857494289</v>
+      </c>
+      <c r="H487">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="I487">
+        <v>0.0005271481286241434</v>
+      </c>
+      <c r="J487">
+        <v>0</v>
+      </c>
+      <c r="K487">
+        <v>0</v>
+      </c>
+      <c r="L487">
+        <v>0.0001757160428747145</v>
+      </c>
+      <c r="M487">
+        <v>0.0001757160428747145</v>
+      </c>
+      <c r="N487">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14">
+      <c r="A488" t="s">
+        <v>25</v>
+      </c>
+      <c r="B488">
+        <v>0.0278041825095057</v>
+      </c>
+      <c r="C488">
+        <v>0.0004752851711026616</v>
+      </c>
+      <c r="D488">
+        <v>0.0004752851711026616</v>
+      </c>
+      <c r="E488">
+        <v>0.002138783269961977</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>0</v>
+      </c>
+      <c r="H488">
+        <v>0.001663498098859315</v>
+      </c>
+      <c r="I488">
+        <v>0.0007129277566539924</v>
+      </c>
+      <c r="J488">
+        <v>0</v>
+      </c>
+      <c r="K488">
+        <v>0</v>
+      </c>
+      <c r="L488">
+        <v>0</v>
+      </c>
+      <c r="M488">
+        <v>0.0004752851711026616</v>
+      </c>
+      <c r="N488">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="489" spans="1:14">
+      <c r="A489" t="s">
+        <v>25</v>
+      </c>
+      <c r="B489">
+        <v>0.05488913122500909</v>
+      </c>
+      <c r="C489">
+        <v>0.002908033442384587</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+      <c r="E489">
+        <v>0.00109051254089422</v>
+      </c>
+      <c r="F489">
+        <v>0.0003635041802980734</v>
+      </c>
+      <c r="G489">
+        <v>0</v>
+      </c>
+      <c r="H489">
+        <v>0.0007270083605961468</v>
+      </c>
+      <c r="I489">
+        <v>0.0003635041802980734</v>
+      </c>
+      <c r="J489">
+        <v>0</v>
+      </c>
+      <c r="K489">
+        <v>0</v>
+      </c>
+      <c r="L489">
+        <v>0</v>
+      </c>
+      <c r="M489">
+        <v>0</v>
+      </c>
+      <c r="N489">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="490" spans="1:14">
+      <c r="A490" t="s">
+        <v>25</v>
+      </c>
+      <c r="B490">
+        <v>0.07243163340724317</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+      <c r="E490">
+        <v>0.006651884700665188</v>
+      </c>
+      <c r="F490">
+        <v>0.00147819660014782</v>
+      </c>
+      <c r="G490">
+        <v>0</v>
+      </c>
+      <c r="H490">
+        <v>0</v>
+      </c>
+      <c r="I490">
+        <v>0.0007390983000739098</v>
+      </c>
+      <c r="J490">
+        <v>0</v>
+      </c>
+      <c r="K490">
+        <v>0</v>
+      </c>
+      <c r="L490">
+        <v>0.0007390983000739098</v>
+      </c>
+      <c r="M490">
+        <v>0</v>
+      </c>
+      <c r="N490">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="491" spans="1:14">
+      <c r="A491" t="s">
+        <v>25</v>
+      </c>
+      <c r="B491">
+        <v>0.05138790035587189</v>
+      </c>
+      <c r="C491">
+        <v>0.001565836298932384</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
+      </c>
+      <c r="E491">
+        <v>0.00199288256227758</v>
+      </c>
+      <c r="F491">
+        <v>0.0002846975088967971</v>
+      </c>
+      <c r="G491">
+        <v>0.0002846975088967971</v>
+      </c>
+      <c r="H491">
+        <v>0.0002846975088967971</v>
+      </c>
+      <c r="I491">
+        <v>0.0004270462633451957</v>
+      </c>
+      <c r="J491">
+        <v>0.0001423487544483986</v>
+      </c>
+      <c r="K491">
+        <v>0.0005693950177935943</v>
+      </c>
+      <c r="L491">
+        <v>0.0001423487544483986</v>
+      </c>
+      <c r="M491">
+        <v>0.0004270462633451957</v>
+      </c>
+      <c r="N491">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="492" spans="1:14">
+      <c r="A492" t="s">
+        <v>25</v>
+      </c>
+      <c r="B492">
+        <v>0.03081380036871214</v>
+      </c>
+      <c r="C492">
+        <v>0.001316829075585989</v>
+      </c>
+      <c r="D492">
+        <v>0</v>
+      </c>
+      <c r="E492">
+        <v>0.002106926520937582</v>
+      </c>
+      <c r="F492">
+        <v>0.0002633658151171978</v>
+      </c>
+      <c r="G492">
+        <v>0.0005267316302343956</v>
+      </c>
+      <c r="H492">
+        <v>0.001053463260468791</v>
+      </c>
+      <c r="I492">
+        <v>0.001580194890703187</v>
+      </c>
+      <c r="J492">
+        <v>0</v>
+      </c>
+      <c r="K492">
+        <v>0.0002633658151171978</v>
+      </c>
+      <c r="L492">
+        <v>0.0002633658151171978</v>
+      </c>
+      <c r="M492">
+        <v>0.001053463260468791</v>
+      </c>
+      <c r="N492">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="493" spans="1:14">
+      <c r="A493" t="s">
+        <v>25</v>
+      </c>
+      <c r="B493">
+        <v>0.02935263369521512</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+      <c r="E493">
+        <v>0.00241254523522316</v>
+      </c>
+      <c r="F493">
+        <v>0</v>
+      </c>
+      <c r="G493">
+        <v>0</v>
+      </c>
+      <c r="H493">
+        <v>0</v>
+      </c>
+      <c r="I493">
+        <v>0.001608363490148774</v>
+      </c>
+      <c r="J493">
+        <v>0</v>
+      </c>
+      <c r="K493">
+        <v>0.001608363490148774</v>
+      </c>
+      <c r="L493">
+        <v>0</v>
+      </c>
+      <c r="M493">
+        <v>0.0008041817450743868</v>
+      </c>
+      <c r="N493">
         <v>2020</v>
       </c>
     </row>
